--- a/tut04/output_by_subject/PH301.csv.xlsx
+++ b/tut04/output_by_subject/PH301.csv.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1624,6 +1624,1194 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1901CB36</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1901CB39</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1901CB43</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1901CE01</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1901CE10</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1901CE13</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1901CE14</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1901CE21</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1901CE25</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1901CE37</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1901CE53</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1901CE54</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1901CS03</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1901CS49</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>1901CS56</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>1901CS73</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>1901EE67</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>1901EE69</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>1901EE70</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>1901ME22</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>1901ME28</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1901ME42</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1901ME44</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1901ME53</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1901ME67</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1901MM03</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1901MM26</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>1901MM28</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1901CE30</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>1901CE34</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>1901CE41</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>1901CS01</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>1901CS02</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>1901CS05</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>1901CS19</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>1901CS32</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>1901CS33</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>1901CS54</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>1901CS55</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>1901CS60</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>1901CS77</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>1901CS27</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>1901CE49</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>1901MM35</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>1901MM27</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>1901CE07</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>1901CE04</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>1901ME23</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>1901ME11</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>1901CB42</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>1901ME04</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Open Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>1901EE66</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>1901EE29</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>1901CS78</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>PH301</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
